--- a/ver9/changes.xlsx
+++ b/ver9/changes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwcn9\Desktop\drax\ver9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88971345-2DF3-4AD2-AF9A-6E85A1482058}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A512A692-1A29-4C66-906B-D34CC1AA2A81}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E1824994-3A64-4FB0-A600-37553D394D34}"/>
+    <workbookView xWindow="1520" yWindow="590" windowWidth="14400" windowHeight="9610" xr2:uid="{E1824994-3A64-4FB0-A600-37553D394D34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>changes</t>
   </si>
@@ -77,9 +77,6 @@
     <t>fleet0_case1_increasedBreak</t>
   </si>
   <si>
-    <t>fleet0_case0</t>
-  </si>
-  <si>
     <t>fleet6_case5</t>
   </si>
   <si>
@@ -103,13 +100,7 @@
     <t>available power increases only by 50%, but cost per vehicle is the same</t>
   </si>
   <si>
-    <t>add non-charging break (1hr)</t>
-  </si>
-  <si>
     <t>reduces cost by £10</t>
-  </si>
-  <si>
-    <t>reduces cost by £20</t>
   </si>
   <si>
     <t>change rcPerc (min battkW for it to start RC)
@@ -212,9 +203,6 @@
     </r>
   </si>
   <si>
-    <t>add charging break (1.5hr)</t>
-  </si>
-  <si>
     <t>just about removes all RC, saves £70</t>
   </si>
   <si>
@@ -228,6 +216,9 @@
   </si>
   <si>
     <t>increase non-charging break length (from 1.5hr to 3.5hr)</t>
+  </si>
+  <si>
+    <t>change from 1hr non-charging break to 1.5hr charging break</t>
   </si>
 </sst>
 </file>
@@ -606,15 +597,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F24EC1D-297D-4106-ABA6-44730C87F7E4}">
-  <dimension ref="B1:G11"/>
+  <dimension ref="B1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="48.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.26953125" style="2" customWidth="1"/>
@@ -631,147 +622,133 @@
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>17</v>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>28</v>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/ver9/changes.xlsx
+++ b/ver9/changes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwcn9\Desktop\drax\ver9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A512A692-1A29-4C66-906B-D34CC1AA2A81}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1515B147-B6F4-46AA-A1A7-9F2937F089F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="590" windowWidth="14400" windowHeight="9610" xr2:uid="{E1824994-3A64-4FB0-A600-37553D394D34}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>changes</t>
   </si>
@@ -219,6 +219,15 @@
   </si>
   <si>
     <t>change from 1hr non-charging break to 1.5hr charging break</t>
+  </si>
+  <si>
+    <t>reduece max charge of charge points</t>
+  </si>
+  <si>
+    <t>fleet12_case5</t>
+  </si>
+  <si>
+    <t>equal number of rapid charges, saves £2</t>
   </si>
 </sst>
 </file>
@@ -597,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F24EC1D-297D-4106-ABA6-44730C87F7E4}">
-  <dimension ref="B1:G10"/>
+  <dimension ref="B1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -751,6 +760,20 @@
         <v>20</v>
       </c>
     </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ver9/changes.xlsx
+++ b/ver9/changes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwcn9\Desktop\drax\ver9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1515B147-B6F4-46AA-A1A7-9F2937F089F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A6F66B-1041-4E7C-84BB-E9317D6E2AA1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="590" windowWidth="14400" windowHeight="9610" xr2:uid="{E1824994-3A64-4FB0-A600-37553D394D34}"/>
+    <workbookView xWindow="1520" yWindow="1190" windowWidth="14400" windowHeight="9610" xr2:uid="{E1824994-3A64-4FB0-A600-37553D394D34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>changes</t>
   </si>
@@ -228,12 +228,86 @@
   </si>
   <si>
     <t>equal number of rapid charges, saves £2</t>
+  </si>
+  <si>
+    <t>GROUNDBREAKING</t>
+  </si>
+  <si>
+    <t>£183.44, 0RC</t>
+  </si>
+  <si>
+    <t>£205.2, 12RC</t>
+  </si>
+  <si>
+    <t>reduce 12 RCs, saves £22</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>predictive charging</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instead of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cost sensitive charging</t>
+    </r>
+  </si>
+  <si>
+    <t>£205.3, 20RC</t>
+  </si>
+  <si>
+    <t>£205.3, 20RC
+£135.98, 0RC</t>
+  </si>
+  <si>
+    <t>£135.98, 0RC</t>
+  </si>
+  <si>
+    <t>£203.32, 20RC
+£205.3, 20RC</t>
+  </si>
+  <si>
+    <t>£206.77, 20RC
+£192.29, 20RC</t>
+  </si>
+  <si>
+    <t>£205.23, 22RC
+£203.26, 20RC</t>
+  </si>
+  <si>
+    <t>£203.32, 10RC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -277,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -292,6 +366,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,91 +681,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F24EC1D-297D-4106-ABA6-44730C87F7E4}">
-  <dimension ref="B1:G11"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.26953125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7265625" customWidth="1"/>
+    <col min="9" max="9" width="39.26953125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>32</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>31</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2"/>
+      <c r="I5" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
@@ -698,13 +780,19 @@
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
@@ -712,55 +800,71 @@
         <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>33</v>
       </c>
@@ -768,10 +872,31 @@
         <v>6</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="2"/>
+      <c r="I11" s="2" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
